--- a/stock_historical_data/1mo/IRCTC.NS.xlsx
+++ b/stock_historical_data/1mo/IRCTC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>1</v>
       </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,60 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>22</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/IRCTC.NS.xlsx
+++ b/stock_historical_data/1mo/IRCTC.NS.xlsx
@@ -3488,7 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/IRCTC.NS.xlsx
+++ b/stock_historical_data/1mo/IRCTC.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B2" t="n">
-        <v>177</v>
+        <v>120.4445581978721</v>
       </c>
       <c r="C2" t="n">
-        <v>196.1799926757812</v>
+        <v>183.456688822939</v>
       </c>
       <c r="D2" t="n">
-        <v>174.2599945068359</v>
+        <v>120.2521576814255</v>
       </c>
       <c r="E2" t="n">
-        <v>179.4499969482422</v>
-      </c>
-      <c r="F2" t="n">
-        <v>174.9626312255859</v>
-      </c>
+        <v>169.6421203613281</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>175266125</v>
+        <v>583079725</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>44</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B3" t="n">
-        <v>180.3999938964844</v>
+        <v>177</v>
       </c>
       <c r="C3" t="n">
-        <v>190.9400024414062</v>
+        <v>196.1799926757812</v>
       </c>
       <c r="D3" t="n">
-        <v>171.0599975585938</v>
+        <v>174.2599945068359</v>
       </c>
       <c r="E3" t="n">
-        <v>186.6900024414062</v>
+        <v>179.4499969482422</v>
       </c>
       <c r="F3" t="n">
-        <v>182.0215759277344</v>
+        <v>174.9626312255859</v>
       </c>
       <c r="G3" t="n">
-        <v>88860765</v>
+        <v>175266125</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B4" t="n">
-        <v>188.3800048828125</v>
+        <v>180.3999938964844</v>
       </c>
       <c r="C4" t="n">
-        <v>247</v>
+        <v>190.9400024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>177.2599945068359</v>
+        <v>171.0599975585938</v>
       </c>
       <c r="E4" t="n">
-        <v>242.0599975585938</v>
+        <v>186.6900024414062</v>
       </c>
       <c r="F4" t="n">
-        <v>236.0069580078125</v>
+        <v>182.0215759277344</v>
       </c>
       <c r="G4" t="n">
-        <v>145742565</v>
+        <v>88860765</v>
       </c>
       <c r="H4" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B5" t="n">
-        <v>248.1999969482422</v>
+        <v>188.3800048828125</v>
       </c>
       <c r="C5" t="n">
-        <v>398.7999877929688</v>
+        <v>247</v>
       </c>
       <c r="D5" t="n">
-        <v>233.6399993896484</v>
+        <v>177.2599945068359</v>
       </c>
       <c r="E5" t="n">
-        <v>348.760009765625</v>
+        <v>242.0599975585938</v>
       </c>
       <c r="F5" t="n">
-        <v>340.038818359375</v>
+        <v>236.0069580078125</v>
       </c>
       <c r="G5" t="n">
-        <v>641800945</v>
+        <v>145742565</v>
       </c>
       <c r="H5" t="n">
         <v>2020</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B6" t="n">
-        <v>362</v>
+        <v>248.1999969482422</v>
       </c>
       <c r="C6" t="n">
-        <v>374.739990234375</v>
+        <v>398.7999877929688</v>
       </c>
       <c r="D6" t="n">
-        <v>154.9299926757812</v>
+        <v>233.6399993896484</v>
       </c>
       <c r="E6" t="n">
-        <v>196.5099945068359</v>
+        <v>348.760009765625</v>
       </c>
       <c r="F6" t="n">
-        <v>192.5938873291016</v>
+        <v>340.038818359375</v>
       </c>
       <c r="G6" t="n">
-        <v>200652840</v>
+        <v>641800945</v>
       </c>
       <c r="H6" t="n">
         <v>2020</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B7" t="n">
-        <v>206.3300018310547</v>
+        <v>362</v>
       </c>
       <c r="C7" t="n">
-        <v>301.7999877929688</v>
+        <v>374.739990234375</v>
       </c>
       <c r="D7" t="n">
-        <v>206.3300018310547</v>
+        <v>154.9299926757812</v>
       </c>
       <c r="E7" t="n">
-        <v>264.8699951171875</v>
+        <v>196.5099945068359</v>
       </c>
       <c r="F7" t="n">
-        <v>259.591552734375</v>
+        <v>192.5938873291016</v>
       </c>
       <c r="G7" t="n">
-        <v>116527405</v>
+        <v>200652840</v>
       </c>
       <c r="H7" t="n">
         <v>2020</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B8" t="n">
+        <v>206.3300018310547</v>
+      </c>
+      <c r="C8" t="n">
+        <v>301.7999877929688</v>
+      </c>
+      <c r="D8" t="n">
+        <v>206.3300018310547</v>
+      </c>
+      <c r="E8" t="n">
         <v>264.8699951171875</v>
       </c>
-      <c r="C8" t="n">
-        <v>295</v>
-      </c>
-      <c r="D8" t="n">
-        <v>238</v>
-      </c>
-      <c r="E8" t="n">
-        <v>282.0700073242188</v>
-      </c>
       <c r="F8" t="n">
-        <v>276.4488220214844</v>
+        <v>259.591552734375</v>
       </c>
       <c r="G8" t="n">
-        <v>113036950</v>
+        <v>116527405</v>
       </c>
       <c r="H8" t="n">
         <v>2020</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B9" t="n">
-        <v>290</v>
+        <v>264.8699951171875</v>
       </c>
       <c r="C9" t="n">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="D9" t="n">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E9" t="n">
-        <v>271.7300109863281</v>
+        <v>282.0700073242188</v>
       </c>
       <c r="F9" t="n">
-        <v>266.3148803710938</v>
+        <v>276.4488220214844</v>
       </c>
       <c r="G9" t="n">
-        <v>144304865</v>
+        <v>113036950</v>
       </c>
       <c r="H9" t="n">
         <v>2020</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B10" t="n">
-        <v>272.7300109863281</v>
+        <v>290</v>
       </c>
       <c r="C10" t="n">
-        <v>293.5599975585938</v>
+        <v>319</v>
       </c>
       <c r="D10" t="n">
-        <v>266.4299926757812</v>
+        <v>268</v>
       </c>
       <c r="E10" t="n">
-        <v>267.1700134277344</v>
+        <v>271.7300109863281</v>
       </c>
       <c r="F10" t="n">
-        <v>261.8457641601562</v>
+        <v>266.3148803710938</v>
       </c>
       <c r="G10" t="n">
-        <v>76077880</v>
+        <v>144304865</v>
       </c>
       <c r="H10" t="n">
         <v>2020</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B11" t="n">
-        <v>267.3999938964844</v>
+        <v>272.7300109863281</v>
       </c>
       <c r="C11" t="n">
-        <v>282.7999877929688</v>
+        <v>293.5599975585938</v>
       </c>
       <c r="D11" t="n">
-        <v>263.010009765625</v>
+        <v>266.4299926757812</v>
       </c>
       <c r="E11" t="n">
-        <v>268.8500061035156</v>
+        <v>267.1700134277344</v>
       </c>
       <c r="F11" t="n">
-        <v>263.4922180175781</v>
+        <v>261.8457641601562</v>
       </c>
       <c r="G11" t="n">
-        <v>63749350</v>
+        <v>76077880</v>
       </c>
       <c r="H11" t="n">
         <v>2020</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B12" t="n">
-        <v>267.2000122070312</v>
+        <v>267.3999938964844</v>
       </c>
       <c r="C12" t="n">
-        <v>291.9800109863281</v>
+        <v>282.7999877929688</v>
       </c>
       <c r="D12" t="n">
-        <v>264.2300109863281</v>
+        <v>263.010009765625</v>
       </c>
       <c r="E12" t="n">
-        <v>276.7999877929688</v>
+        <v>268.8500061035156</v>
       </c>
       <c r="F12" t="n">
-        <v>271.2838439941406</v>
+        <v>263.4922180175781</v>
       </c>
       <c r="G12" t="n">
-        <v>85122950</v>
+        <v>63749350</v>
       </c>
       <c r="H12" t="n">
         <v>2020</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B13" t="n">
-        <v>282</v>
+        <v>267.2000122070312</v>
       </c>
       <c r="C13" t="n">
-        <v>282</v>
+        <v>291.9800109863281</v>
       </c>
       <c r="D13" t="n">
-        <v>259.4100036621094</v>
+        <v>264.2300109863281</v>
       </c>
       <c r="E13" t="n">
-        <v>263.0400085449219</v>
+        <v>276.7999877929688</v>
       </c>
       <c r="F13" t="n">
-        <v>257.7980651855469</v>
+        <v>271.2838439941406</v>
       </c>
       <c r="G13" t="n">
-        <v>22778315</v>
+        <v>85122950</v>
       </c>
       <c r="H13" t="n">
         <v>2020</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B14" t="n">
-        <v>264.0400085449219</v>
+        <v>282</v>
       </c>
       <c r="C14" t="n">
-        <v>283.3699951171875</v>
+        <v>282</v>
       </c>
       <c r="D14" t="n">
-        <v>258.010009765625</v>
+        <v>259.4100036621094</v>
       </c>
       <c r="E14" t="n">
-        <v>270.6900024414062</v>
+        <v>263.0400085449219</v>
       </c>
       <c r="F14" t="n">
-        <v>265.7958984375</v>
+        <v>257.7980651855469</v>
       </c>
       <c r="G14" t="n">
-        <v>35237780</v>
+        <v>22778315</v>
       </c>
       <c r="H14" t="n">
         <v>2020</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B15" t="n">
-        <v>271.6000061035156</v>
+        <v>264.0400085449219</v>
       </c>
       <c r="C15" t="n">
-        <v>360</v>
+        <v>283.3699951171875</v>
       </c>
       <c r="D15" t="n">
-        <v>267.2900085449219</v>
+        <v>258.010009765625</v>
       </c>
       <c r="E15" t="n">
-        <v>287.5599975585938</v>
+        <v>270.6900024414062</v>
       </c>
       <c r="F15" t="n">
-        <v>282.3609313964844</v>
+        <v>265.7958984375</v>
       </c>
       <c r="G15" t="n">
-        <v>467633620</v>
+        <v>35237780</v>
       </c>
       <c r="H15" t="n">
         <v>2020</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B16" t="n">
-        <v>289.3999938964844</v>
+        <v>271.6000061035156</v>
       </c>
       <c r="C16" t="n">
-        <v>302.9800109863281</v>
+        <v>360</v>
       </c>
       <c r="D16" t="n">
-        <v>283.4100036621094</v>
+        <v>267.2900085449219</v>
       </c>
       <c r="E16" t="n">
-        <v>291.2200012207031</v>
+        <v>287.5599975585938</v>
       </c>
       <c r="F16" t="n">
-        <v>285.9547424316406</v>
+        <v>282.3609313964844</v>
       </c>
       <c r="G16" t="n">
-        <v>137166310</v>
+        <v>467633620</v>
       </c>
       <c r="H16" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B17" t="n">
-        <v>293.9500122070312</v>
+        <v>289.3999938964844</v>
       </c>
       <c r="C17" t="n">
-        <v>361.989990234375</v>
+        <v>302.9800109863281</v>
       </c>
       <c r="D17" t="n">
-        <v>290.2300109863281</v>
+        <v>283.4100036621094</v>
       </c>
       <c r="E17" t="n">
-        <v>351.9299926757812</v>
+        <v>291.2200012207031</v>
       </c>
       <c r="F17" t="n">
-        <v>345.5671081542969</v>
+        <v>285.9547424316406</v>
       </c>
       <c r="G17" t="n">
-        <v>256392390</v>
+        <v>137166310</v>
       </c>
       <c r="H17" t="n">
         <v>2021</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B18" t="n">
-        <v>357.5899963378906</v>
+        <v>293.9500122070312</v>
       </c>
       <c r="C18" t="n">
-        <v>414.6000061035156</v>
+        <v>361.989990234375</v>
       </c>
       <c r="D18" t="n">
-        <v>340.6000061035156</v>
+        <v>290.2300109863281</v>
       </c>
       <c r="E18" t="n">
-        <v>351.3999938964844</v>
+        <v>351.9299926757812</v>
       </c>
       <c r="F18" t="n">
-        <v>345.0467224121094</v>
+        <v>345.5671081542969</v>
       </c>
       <c r="G18" t="n">
-        <v>338877595</v>
+        <v>256392390</v>
       </c>
       <c r="H18" t="n">
         <v>2021</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1422,36 +1414,36 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B19" t="n">
-        <v>352</v>
+        <v>357.5899963378906</v>
       </c>
       <c r="C19" t="n">
-        <v>363.6000061035156</v>
+        <v>414.6000061035156</v>
       </c>
       <c r="D19" t="n">
-        <v>310</v>
+        <v>340.6000061035156</v>
       </c>
       <c r="E19" t="n">
-        <v>358.2799987792969</v>
+        <v>351.3999938964844</v>
       </c>
       <c r="F19" t="n">
-        <v>351.8023071289062</v>
+        <v>345.0467224121094</v>
       </c>
       <c r="G19" t="n">
-        <v>129551715</v>
+        <v>338877595</v>
       </c>
       <c r="H19" t="n">
         <v>2021</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1475,36 +1467,36 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B20" t="n">
-        <v>352.2000122070312</v>
+        <v>352</v>
       </c>
       <c r="C20" t="n">
-        <v>388.2300109863281</v>
+        <v>363.6000061035156</v>
       </c>
       <c r="D20" t="n">
-        <v>336.2999877929688</v>
+        <v>310</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6400146484375</v>
+        <v>358.2799987792969</v>
       </c>
       <c r="F20" t="n">
-        <v>373.7579956054688</v>
+        <v>351.8023071289062</v>
       </c>
       <c r="G20" t="n">
-        <v>112920180</v>
+        <v>129551715</v>
       </c>
       <c r="H20" t="n">
         <v>2021</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B21" t="n">
-        <v>382.3599853515625</v>
+        <v>352.2000122070312</v>
       </c>
       <c r="C21" t="n">
-        <v>436.7999877929688</v>
+        <v>388.2300109863281</v>
       </c>
       <c r="D21" t="n">
-        <v>377.6000061035156</v>
+        <v>336.2999877929688</v>
       </c>
       <c r="E21" t="n">
-        <v>406.7699890136719</v>
+        <v>380.6400146484375</v>
       </c>
       <c r="F21" t="n">
-        <v>399.4155578613281</v>
+        <v>373.7579956054688</v>
       </c>
       <c r="G21" t="n">
-        <v>175481345</v>
+        <v>112920180</v>
       </c>
       <c r="H21" t="n">
         <v>2021</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B22" t="n">
-        <v>409.5599975585938</v>
+        <v>382.3599853515625</v>
       </c>
       <c r="C22" t="n">
-        <v>495.989990234375</v>
+        <v>436.7999877929688</v>
       </c>
       <c r="D22" t="n">
-        <v>406.0599975585938</v>
+        <v>377.6000061035156</v>
       </c>
       <c r="E22" t="n">
-        <v>466.260009765625</v>
+        <v>406.7699890136719</v>
       </c>
       <c r="F22" t="n">
-        <v>457.8299865722656</v>
+        <v>399.4155578613281</v>
       </c>
       <c r="G22" t="n">
-        <v>188321555</v>
+        <v>175481345</v>
       </c>
       <c r="H22" t="n">
         <v>2021</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B23" t="n">
-        <v>493.7999877929688</v>
+        <v>409.5599975585938</v>
       </c>
       <c r="C23" t="n">
-        <v>551.9000244140625</v>
+        <v>495.989990234375</v>
       </c>
       <c r="D23" t="n">
-        <v>484.4700012207031</v>
+        <v>406.0599975585938</v>
       </c>
       <c r="E23" t="n">
-        <v>550.4000244140625</v>
+        <v>466.260009765625</v>
       </c>
       <c r="F23" t="n">
-        <v>540.4488525390625</v>
+        <v>457.8299865722656</v>
       </c>
       <c r="G23" t="n">
-        <v>265821825</v>
+        <v>188321555</v>
       </c>
       <c r="H23" t="n">
         <v>2021</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B24" t="n">
-        <v>551</v>
+        <v>493.7999877929688</v>
       </c>
       <c r="C24" t="n">
-        <v>803.9400024414062</v>
+        <v>551.9000244140625</v>
       </c>
       <c r="D24" t="n">
-        <v>543.5999755859375</v>
+        <v>484.4700012207031</v>
       </c>
       <c r="E24" t="n">
-        <v>759.7000122070312</v>
+        <v>550.4000244140625</v>
       </c>
       <c r="F24" t="n">
-        <v>745.964599609375</v>
+        <v>540.4488525390625</v>
       </c>
       <c r="G24" t="n">
-        <v>545236920</v>
+        <v>265821825</v>
       </c>
       <c r="H24" t="n">
         <v>2021</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B25" t="n">
-        <v>755.4000244140625</v>
+        <v>551</v>
       </c>
       <c r="C25" t="n">
-        <v>1279.260009765625</v>
+        <v>803.9400024414062</v>
       </c>
       <c r="D25" t="n">
-        <v>639.4500122070312</v>
+        <v>543.5999755859375</v>
       </c>
       <c r="E25" t="n">
-        <v>845.7000122070312</v>
+        <v>759.7000122070312</v>
       </c>
       <c r="F25" t="n">
-        <v>831.5310668945312</v>
+        <v>745.964599609375</v>
       </c>
       <c r="G25" t="n">
-        <v>903811883</v>
+        <v>545236920</v>
       </c>
       <c r="H25" t="n">
         <v>2021</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B26" t="n">
-        <v>874.2000122070312</v>
+        <v>755.4000244140625</v>
       </c>
       <c r="C26" t="n">
-        <v>929</v>
+        <v>1279.260009765625</v>
       </c>
       <c r="D26" t="n">
-        <v>750.5499877929688</v>
+        <v>639.4500122070312</v>
       </c>
       <c r="E26" t="n">
-        <v>795.1500244140625</v>
+        <v>845.7000122070312</v>
       </c>
       <c r="F26" t="n">
-        <v>781.8279418945312</v>
+        <v>831.5310668945312</v>
       </c>
       <c r="G26" t="n">
-        <v>235322037</v>
+        <v>903811883</v>
       </c>
       <c r="H26" t="n">
         <v>2021</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B27" t="n">
-        <v>809</v>
+        <v>874.2000122070312</v>
       </c>
       <c r="C27" t="n">
-        <v>878.2000122070312</v>
+        <v>929</v>
       </c>
       <c r="D27" t="n">
-        <v>780.7000122070312</v>
+        <v>750.5499877929688</v>
       </c>
       <c r="E27" t="n">
-        <v>831.75</v>
+        <v>795.1500244140625</v>
       </c>
       <c r="F27" t="n">
-        <v>817.8147583007812</v>
+        <v>781.8279418945312</v>
       </c>
       <c r="G27" t="n">
-        <v>100440308</v>
+        <v>235322037</v>
       </c>
       <c r="H27" t="n">
         <v>2021</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B28" t="n">
-        <v>831.9000244140625</v>
+        <v>809</v>
       </c>
       <c r="C28" t="n">
-        <v>918.6500244140625</v>
+        <v>878.2000122070312</v>
       </c>
       <c r="D28" t="n">
-        <v>784.7999877929688</v>
+        <v>780.7000122070312</v>
       </c>
       <c r="E28" t="n">
-        <v>868</v>
+        <v>831.75</v>
       </c>
       <c r="F28" t="n">
-        <v>853.4573974609375</v>
+        <v>817.8147583007812</v>
       </c>
       <c r="G28" t="n">
-        <v>105306711</v>
+        <v>100440308</v>
       </c>
       <c r="H28" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B29" t="n">
-        <v>894.5999755859375</v>
+        <v>831.9000244140625</v>
       </c>
       <c r="C29" t="n">
-        <v>899.9000244140625</v>
+        <v>918.6500244140625</v>
       </c>
       <c r="D29" t="n">
-        <v>735</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="E29" t="n">
-        <v>809.3499755859375</v>
+        <v>868</v>
       </c>
       <c r="F29" t="n">
-        <v>795.7899780273438</v>
+        <v>853.4573974609375</v>
       </c>
       <c r="G29" t="n">
-        <v>88430703</v>
+        <v>105306711</v>
       </c>
       <c r="H29" t="n">
         <v>2022</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2005,36 +1997,36 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B30" t="n">
+        <v>894.5999755859375</v>
+      </c>
+      <c r="C30" t="n">
+        <v>899.9000244140625</v>
+      </c>
+      <c r="D30" t="n">
+        <v>735</v>
+      </c>
+      <c r="E30" t="n">
         <v>809.3499755859375</v>
       </c>
-      <c r="C30" t="n">
-        <v>822</v>
-      </c>
-      <c r="D30" t="n">
-        <v>708.4000244140625</v>
-      </c>
-      <c r="E30" t="n">
-        <v>774.7000122070312</v>
-      </c>
       <c r="F30" t="n">
-        <v>763.5715942382812</v>
+        <v>795.7899780273438</v>
       </c>
       <c r="G30" t="n">
-        <v>80435821</v>
+        <v>88430703</v>
       </c>
       <c r="H30" t="n">
         <v>2022</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2058,36 +2050,36 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B31" t="n">
-        <v>777</v>
+        <v>809.3499755859375</v>
       </c>
       <c r="C31" t="n">
-        <v>840.9500122070312</v>
+        <v>822</v>
       </c>
       <c r="D31" t="n">
-        <v>740</v>
+        <v>708.4000244140625</v>
       </c>
       <c r="E31" t="n">
-        <v>745.9500122070312</v>
+        <v>774.7000122070312</v>
       </c>
       <c r="F31" t="n">
-        <v>735.2346801757812</v>
+        <v>763.5715942382812</v>
       </c>
       <c r="G31" t="n">
-        <v>47969268</v>
+        <v>80435821</v>
       </c>
       <c r="H31" t="n">
         <v>2022</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B32" t="n">
+        <v>777</v>
+      </c>
+      <c r="C32" t="n">
+        <v>840.9500122070312</v>
+      </c>
+      <c r="D32" t="n">
         <v>740</v>
       </c>
-      <c r="C32" t="n">
-        <v>744.7000122070312</v>
-      </c>
-      <c r="D32" t="n">
-        <v>618</v>
-      </c>
       <c r="E32" t="n">
-        <v>692.6500244140625</v>
+        <v>745.9500122070312</v>
       </c>
       <c r="F32" t="n">
-        <v>682.7002563476562</v>
+        <v>735.2346801757812</v>
       </c>
       <c r="G32" t="n">
-        <v>59623097</v>
+        <v>47969268</v>
       </c>
       <c r="H32" t="n">
         <v>2022</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B33" t="n">
+        <v>740</v>
+      </c>
+      <c r="C33" t="n">
+        <v>744.7000122070312</v>
+      </c>
+      <c r="D33" t="n">
+        <v>618</v>
+      </c>
+      <c r="E33" t="n">
         <v>692.6500244140625</v>
       </c>
-      <c r="C33" t="n">
-        <v>698.8499755859375</v>
-      </c>
-      <c r="D33" t="n">
-        <v>568.4500122070312</v>
-      </c>
-      <c r="E33" t="n">
-        <v>576.2000122070312</v>
-      </c>
       <c r="F33" t="n">
-        <v>567.923095703125</v>
+        <v>682.7002563476562</v>
       </c>
       <c r="G33" t="n">
-        <v>46806680</v>
+        <v>59623097</v>
       </c>
       <c r="H33" t="n">
         <v>2022</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B34" t="n">
+        <v>692.6500244140625</v>
+      </c>
+      <c r="C34" t="n">
+        <v>698.8499755859375</v>
+      </c>
+      <c r="D34" t="n">
+        <v>568.4500122070312</v>
+      </c>
+      <c r="E34" t="n">
         <v>576.2000122070312</v>
       </c>
-      <c r="C34" t="n">
-        <v>640</v>
-      </c>
-      <c r="D34" t="n">
-        <v>557</v>
-      </c>
-      <c r="E34" t="n">
-        <v>637.0999755859375</v>
-      </c>
       <c r="F34" t="n">
-        <v>627.9481811523438</v>
+        <v>567.923095703125</v>
       </c>
       <c r="G34" t="n">
-        <v>42810635</v>
+        <v>46806680</v>
       </c>
       <c r="H34" t="n">
         <v>2022</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B35" t="n">
-        <v>646.3499755859375</v>
+        <v>576.2000122070312</v>
       </c>
       <c r="C35" t="n">
-        <v>752.75</v>
+        <v>640</v>
       </c>
       <c r="D35" t="n">
-        <v>631.0499877929688</v>
+        <v>557</v>
       </c>
       <c r="E35" t="n">
-        <v>710.75</v>
+        <v>637.0999755859375</v>
       </c>
       <c r="F35" t="n">
-        <v>700.540283203125</v>
+        <v>627.9481811523438</v>
       </c>
       <c r="G35" t="n">
-        <v>105608553</v>
+        <v>42810635</v>
       </c>
       <c r="H35" t="n">
         <v>2022</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B36" t="n">
-        <v>707</v>
+        <v>646.3499755859375</v>
       </c>
       <c r="C36" t="n">
-        <v>738</v>
+        <v>752.75</v>
       </c>
       <c r="D36" t="n">
-        <v>661</v>
+        <v>631.0499877929688</v>
       </c>
       <c r="E36" t="n">
-        <v>706</v>
+        <v>710.75</v>
       </c>
       <c r="F36" t="n">
-        <v>697.4160766601562</v>
+        <v>700.540283203125</v>
       </c>
       <c r="G36" t="n">
-        <v>55153304</v>
+        <v>105608553</v>
       </c>
       <c r="H36" t="n">
         <v>2022</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B37" t="n">
-        <v>705.9500122070312</v>
+        <v>707</v>
       </c>
       <c r="C37" t="n">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="D37" t="n">
-        <v>700.0999755859375</v>
+        <v>661</v>
       </c>
       <c r="E37" t="n">
-        <v>741.2000122070312</v>
+        <v>706</v>
       </c>
       <c r="F37" t="n">
-        <v>732.1881103515625</v>
+        <v>697.4160766601562</v>
       </c>
       <c r="G37" t="n">
-        <v>45261333</v>
+        <v>55153304</v>
       </c>
       <c r="H37" t="n">
         <v>2022</v>
       </c>
       <c r="I37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B38" t="n">
-        <v>745</v>
+        <v>705.9500122070312</v>
       </c>
       <c r="C38" t="n">
-        <v>774.9000244140625</v>
+        <v>756</v>
       </c>
       <c r="D38" t="n">
-        <v>710.5999755859375</v>
+        <v>700.0999755859375</v>
       </c>
       <c r="E38" t="n">
-        <v>736.2000122070312</v>
+        <v>741.2000122070312</v>
       </c>
       <c r="F38" t="n">
-        <v>727.2489013671875</v>
+        <v>732.1881103515625</v>
       </c>
       <c r="G38" t="n">
-        <v>45620565</v>
+        <v>45261333</v>
       </c>
       <c r="H38" t="n">
         <v>2022</v>
       </c>
       <c r="I38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,45 +2465,45 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B39" t="n">
-        <v>739.9000244140625</v>
+        <v>745</v>
       </c>
       <c r="C39" t="n">
-        <v>742.5</v>
+        <v>774.9000244140625</v>
       </c>
       <c r="D39" t="n">
-        <v>605</v>
+        <v>710.5999755859375</v>
       </c>
       <c r="E39" t="n">
-        <v>639.7000122070312</v>
+        <v>736.2000122070312</v>
       </c>
       <c r="F39" t="n">
-        <v>631.9221801757812</v>
+        <v>727.2489013671875</v>
       </c>
       <c r="G39" t="n">
-        <v>73231276</v>
+        <v>45620565</v>
       </c>
       <c r="H39" t="n">
         <v>2022</v>
       </c>
       <c r="I39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,45 +2518,45 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B40" t="n">
-        <v>643</v>
+        <v>739.9000244140625</v>
       </c>
       <c r="C40" t="n">
-        <v>654.7999877929688</v>
+        <v>742.5</v>
       </c>
       <c r="D40" t="n">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E40" t="n">
-        <v>636.5999755859375</v>
+        <v>639.7000122070312</v>
       </c>
       <c r="F40" t="n">
-        <v>628.85986328125</v>
+        <v>631.9221801757812</v>
       </c>
       <c r="G40" t="n">
-        <v>22816711</v>
+        <v>73231276</v>
       </c>
       <c r="H40" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B41" t="n">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C41" t="n">
-        <v>656.7000122070312</v>
+        <v>654.7999877929688</v>
       </c>
       <c r="D41" t="n">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="E41" t="n">
-        <v>609.25</v>
+        <v>636.5999755859375</v>
       </c>
       <c r="F41" t="n">
-        <v>601.8424682617188</v>
+        <v>628.85986328125</v>
       </c>
       <c r="G41" t="n">
-        <v>25454554</v>
+        <v>22816711</v>
       </c>
       <c r="H41" t="n">
         <v>2023</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2646,31 +2638,31 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B42" t="n">
-        <v>603.2999877929688</v>
+        <v>641</v>
       </c>
       <c r="C42" t="n">
-        <v>621.4000244140625</v>
+        <v>656.7000122070312</v>
       </c>
       <c r="D42" t="n">
-        <v>557.0999755859375</v>
+        <v>595</v>
       </c>
       <c r="E42" t="n">
-        <v>572.7999877929688</v>
+        <v>609.25</v>
       </c>
       <c r="F42" t="n">
-        <v>568.9346313476562</v>
+        <v>601.8424682617188</v>
       </c>
       <c r="G42" t="n">
-        <v>21303152</v>
+        <v>25454554</v>
       </c>
       <c r="H42" t="n">
         <v>2023</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,45 +2677,45 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B43" t="n">
-        <v>577</v>
+        <v>603.2999877929688</v>
       </c>
       <c r="C43" t="n">
-        <v>619.6500244140625</v>
+        <v>621.4000244140625</v>
       </c>
       <c r="D43" t="n">
-        <v>564.5499877929688</v>
+        <v>557.0999755859375</v>
       </c>
       <c r="E43" t="n">
-        <v>617.7999877929688</v>
+        <v>572.7999877929688</v>
       </c>
       <c r="F43" t="n">
-        <v>613.6309204101562</v>
+        <v>568.9346313476562</v>
       </c>
       <c r="G43" t="n">
-        <v>20642444</v>
+        <v>21303152</v>
       </c>
       <c r="H43" t="n">
         <v>2023</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,45 +2730,45 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B44" t="n">
+        <v>577</v>
+      </c>
+      <c r="C44" t="n">
+        <v>619.6500244140625</v>
+      </c>
+      <c r="D44" t="n">
+        <v>564.5499877929688</v>
+      </c>
+      <c r="E44" t="n">
         <v>617.7999877929688</v>
       </c>
-      <c r="C44" t="n">
-        <v>653.7000122070312</v>
-      </c>
-      <c r="D44" t="n">
-        <v>604.0999755859375</v>
-      </c>
-      <c r="E44" t="n">
-        <v>649.5</v>
-      </c>
       <c r="F44" t="n">
-        <v>645.1170043945312</v>
+        <v>613.6309204101562</v>
       </c>
       <c r="G44" t="n">
-        <v>35537785</v>
+        <v>20642444</v>
       </c>
       <c r="H44" t="n">
         <v>2023</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B45" t="n">
-        <v>650.0999755859375</v>
+        <v>617.7999877929688</v>
       </c>
       <c r="C45" t="n">
-        <v>675</v>
+        <v>653.7000122070312</v>
       </c>
       <c r="D45" t="n">
-        <v>621.6500244140625</v>
+        <v>604.0999755859375</v>
       </c>
       <c r="E45" t="n">
-        <v>635.0999755859375</v>
+        <v>649.5</v>
       </c>
       <c r="F45" t="n">
-        <v>630.814208984375</v>
+        <v>645.1170043945312</v>
       </c>
       <c r="G45" t="n">
-        <v>34524364</v>
+        <v>35537785</v>
       </c>
       <c r="H45" t="n">
         <v>2023</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B46" t="n">
-        <v>635.7999877929688</v>
+        <v>650.0999755859375</v>
       </c>
       <c r="C46" t="n">
-        <v>642.6500244140625</v>
+        <v>675</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3499755859375</v>
+        <v>621.6500244140625</v>
       </c>
       <c r="E46" t="n">
-        <v>640.6500244140625</v>
+        <v>635.0999755859375</v>
       </c>
       <c r="F46" t="n">
-        <v>636.3267211914062</v>
+        <v>630.814208984375</v>
       </c>
       <c r="G46" t="n">
-        <v>21276830</v>
+        <v>34524364</v>
       </c>
       <c r="H46" t="n">
         <v>2023</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,45 +2889,45 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B47" t="n">
-        <v>642</v>
+        <v>635.7999877929688</v>
       </c>
       <c r="C47" t="n">
-        <v>686</v>
+        <v>642.6500244140625</v>
       </c>
       <c r="D47" t="n">
-        <v>630.5999755859375</v>
+        <v>614.3499755859375</v>
       </c>
       <c r="E47" t="n">
-        <v>672</v>
+        <v>640.6500244140625</v>
       </c>
       <c r="F47" t="n">
-        <v>667.4652099609375</v>
+        <v>636.3267211914062</v>
       </c>
       <c r="G47" t="n">
-        <v>52220115</v>
+        <v>21276830</v>
       </c>
       <c r="H47" t="n">
         <v>2023</v>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,45 +2942,45 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B48" t="n">
-        <v>675.75</v>
+        <v>642</v>
       </c>
       <c r="C48" t="n">
-        <v>758</v>
+        <v>686</v>
       </c>
       <c r="D48" t="n">
-        <v>661</v>
+        <v>630.5999755859375</v>
       </c>
       <c r="E48" t="n">
-        <v>680.8499755859375</v>
+        <v>672</v>
       </c>
       <c r="F48" t="n">
-        <v>678.3455200195312</v>
+        <v>667.4652099609375</v>
       </c>
       <c r="G48" t="n">
-        <v>61674523</v>
+        <v>52220115</v>
       </c>
       <c r="H48" t="n">
         <v>2023</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3017,31 +3009,31 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B49" t="n">
+        <v>675.75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>758</v>
+      </c>
+      <c r="D49" t="n">
+        <v>661</v>
+      </c>
+      <c r="E49" t="n">
         <v>680.8499755859375</v>
       </c>
-      <c r="C49" t="n">
-        <v>726.5</v>
-      </c>
-      <c r="D49" t="n">
-        <v>635.5499877929688</v>
-      </c>
-      <c r="E49" t="n">
-        <v>665.3499755859375</v>
-      </c>
       <c r="F49" t="n">
-        <v>662.902587890625</v>
+        <v>678.3455200195312</v>
       </c>
       <c r="G49" t="n">
-        <v>34196410</v>
+        <v>61674523</v>
       </c>
       <c r="H49" t="n">
         <v>2023</v>
       </c>
       <c r="I49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3070,31 +3062,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B50" t="n">
-        <v>666.0499877929688</v>
+        <v>680.8499755859375</v>
       </c>
       <c r="C50" t="n">
-        <v>719.9000244140625</v>
+        <v>726.5</v>
       </c>
       <c r="D50" t="n">
-        <v>649.7000122070312</v>
+        <v>635.5499877929688</v>
       </c>
       <c r="E50" t="n">
-        <v>705.75</v>
+        <v>665.3499755859375</v>
       </c>
       <c r="F50" t="n">
-        <v>703.1539916992188</v>
+        <v>662.902587890625</v>
       </c>
       <c r="G50" t="n">
-        <v>31371572</v>
+        <v>34196410</v>
       </c>
       <c r="H50" t="n">
         <v>2023</v>
       </c>
       <c r="I50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B51" t="n">
-        <v>710</v>
+        <v>666.0499877929688</v>
       </c>
       <c r="C51" t="n">
-        <v>916.5</v>
+        <v>719.9000244140625</v>
       </c>
       <c r="D51" t="n">
-        <v>700</v>
+        <v>649.7000122070312</v>
       </c>
       <c r="E51" t="n">
-        <v>887.5</v>
+        <v>705.75</v>
       </c>
       <c r="F51" t="n">
-        <v>887.5</v>
+        <v>703.1539916992188</v>
       </c>
       <c r="G51" t="n">
-        <v>205349624</v>
+        <v>31371572</v>
       </c>
       <c r="H51" t="n">
         <v>2023</v>
       </c>
       <c r="I51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3176,31 +3168,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B52" t="n">
-        <v>892</v>
+        <v>710</v>
       </c>
       <c r="C52" t="n">
-        <v>1046.900024414062</v>
+        <v>916.5</v>
       </c>
       <c r="D52" t="n">
-        <v>866.7999877929688</v>
+        <v>700</v>
       </c>
       <c r="E52" t="n">
-        <v>977.2000122070312</v>
+        <v>887.5</v>
       </c>
       <c r="F52" t="n">
-        <v>977.2000122070312</v>
+        <v>887.5</v>
       </c>
       <c r="G52" t="n">
-        <v>146344315</v>
+        <v>205349624</v>
       </c>
       <c r="H52" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3229,31 +3221,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B53" t="n">
-        <v>988.5</v>
+        <v>892</v>
       </c>
       <c r="C53" t="n">
-        <v>993.5</v>
+        <v>1046.900024414062</v>
       </c>
       <c r="D53" t="n">
-        <v>877</v>
+        <v>866.7999877929688</v>
       </c>
       <c r="E53" t="n">
-        <v>927.4000244140625</v>
+        <v>977.2000122070312</v>
       </c>
       <c r="F53" t="n">
-        <v>927.4000244140625</v>
+        <v>977.2000122070312</v>
       </c>
       <c r="G53" t="n">
-        <v>69724816</v>
+        <v>146344315</v>
       </c>
       <c r="H53" t="n">
         <v>2024</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B54" t="n">
-        <v>934</v>
+        <v>988.5</v>
       </c>
       <c r="C54" t="n">
-        <v>961</v>
+        <v>993.5</v>
       </c>
       <c r="D54" t="n">
-        <v>862.75</v>
+        <v>877</v>
       </c>
       <c r="E54" t="n">
-        <v>929.7000122070312</v>
+        <v>927.4000244140625</v>
       </c>
       <c r="F54" t="n">
-        <v>929.7000122070312</v>
+        <v>927.4000244140625</v>
       </c>
       <c r="G54" t="n">
-        <v>38976851</v>
+        <v>69724816</v>
       </c>
       <c r="H54" t="n">
         <v>2024</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B55" t="n">
-        <v>930.0499877929688</v>
+        <v>934</v>
       </c>
       <c r="C55" t="n">
-        <v>1068.800048828125</v>
+        <v>961</v>
       </c>
       <c r="D55" t="n">
-        <v>930</v>
+        <v>862.75</v>
       </c>
       <c r="E55" t="n">
-        <v>1038.75</v>
+        <v>929.7000122070312</v>
       </c>
       <c r="F55" t="n">
-        <v>1038.75</v>
+        <v>929.7000122070312</v>
       </c>
       <c r="G55" t="n">
-        <v>72413846</v>
+        <v>38976851</v>
       </c>
       <c r="H55" t="n">
         <v>2024</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B56" t="n">
+        <v>930.0499877929688</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="D56" t="n">
+        <v>930</v>
+      </c>
+      <c r="E56" t="n">
         <v>1038.75</v>
       </c>
-      <c r="C56" t="n">
-        <v>1138.900024414062</v>
-      </c>
-      <c r="D56" t="n">
-        <v>973.5</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1020.349975585938</v>
-      </c>
       <c r="F56" t="n">
-        <v>1020.349975585938</v>
+        <v>1038.75</v>
       </c>
       <c r="G56" t="n">
-        <v>65036601</v>
+        <v>72413846</v>
       </c>
       <c r="H56" t="n">
         <v>2024</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3441,56 +3433,514 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B57" t="n">
-        <v>1084.949951171875</v>
+        <v>1038.75</v>
       </c>
       <c r="C57" t="n">
-        <v>1084.949951171875</v>
+        <v>1138.900024414062</v>
       </c>
       <c r="D57" t="n">
-        <v>845.2999877929688</v>
+        <v>973.5</v>
       </c>
       <c r="E57" t="n">
-        <v>977.75</v>
+        <v>1020.349975585938</v>
       </c>
       <c r="F57" t="n">
-        <v>977.75</v>
+        <v>1020.349975585938</v>
       </c>
       <c r="G57" t="n">
-        <v>31788151</v>
+        <v>65036601</v>
       </c>
       <c r="H57" t="n">
         <v>2024</v>
       </c>
       <c r="I57" t="n">
+        <v>5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>18</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1084.949951171875</v>
+      </c>
+      <c r="D58" t="n">
+        <v>845.2999877929688</v>
+      </c>
+      <c r="E58" t="n">
+        <v>977.75</v>
+      </c>
+      <c r="F58" t="n">
+        <v>977.75</v>
+      </c>
+      <c r="G58" t="n">
+        <v>31788151</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I58" t="n">
         <v>6</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
         <v>22</v>
       </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B59" t="n">
+        <v>976.8238872679177</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1045.349514817693</v>
+      </c>
+      <c r="D59" t="n">
+        <v>927.5386700021074</v>
+      </c>
+      <c r="E59" t="n">
+        <v>974.5051879882812</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>58588219</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>27</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B60" t="n">
+        <v>976.7252105463656</v>
+      </c>
+      <c r="C60" t="n">
+        <v>981.7573093493781</v>
+      </c>
+      <c r="D60" t="n">
+        <v>894.2378266120596</v>
+      </c>
+      <c r="E60" t="n">
+        <v>920.3851318359375</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>27604431</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>31</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B61" t="n">
+        <v>930.4151090210577</v>
+      </c>
+      <c r="C61" t="n">
+        <v>948.4000921792343</v>
+      </c>
+      <c r="D61" t="n">
+        <v>858.1777339946517</v>
+      </c>
+      <c r="E61" t="n">
+        <v>920.109619140625</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>34863509</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>35</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B62" t="n">
+        <v>916.5918645998987</v>
+      </c>
+      <c r="C62" t="n">
+        <v>925.5100557149248</v>
+      </c>
+      <c r="D62" t="n">
+        <v>790.8453456858898</v>
+      </c>
+      <c r="E62" t="n">
+        <v>813.83447265625</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>30982009</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I62" t="n">
+        <v>10</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>40</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B63" t="n">
+        <v>817.9467884345228</v>
+      </c>
+      <c r="C63" t="n">
+        <v>855.4527130998649</v>
+      </c>
+      <c r="D63" t="n">
+        <v>775.8826408298596</v>
+      </c>
+      <c r="E63" t="n">
+        <v>808.5331420898438</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>24954913</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>44</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B64" t="n">
+        <v>811.642856699634</v>
+      </c>
+      <c r="C64" t="n">
+        <v>856.1587408741411</v>
+      </c>
+      <c r="D64" t="n">
+        <v>761.9483801783932</v>
+      </c>
+      <c r="E64" t="n">
+        <v>783.6586303710938</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>23923847</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I64" t="n">
+        <v>12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>48</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B65" t="n">
+        <v>781.7664385759414</v>
+      </c>
+      <c r="C65" t="n">
+        <v>825.3860060492902</v>
+      </c>
+      <c r="D65" t="n">
+        <v>733.2670308030806</v>
+      </c>
+      <c r="E65" t="n">
+        <v>818.9127807617188</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>34627089</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B66" t="n">
+        <v>828.2243466431586</v>
+      </c>
+      <c r="C66" t="n">
+        <v>828.3239104162753</v>
+      </c>
+      <c r="D66" t="n">
+        <v>658.8249748416124</v>
+      </c>
+      <c r="E66" t="n">
+        <v>668.186279296875</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>26774335</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5</v>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B67" t="n">
+        <v>673.0499877929688</v>
+      </c>
+      <c r="C67" t="n">
+        <v>735.2000122070312</v>
+      </c>
+      <c r="D67" t="n">
+        <v>656.0499877929688</v>
+      </c>
+      <c r="E67" t="n">
+        <v>727.5</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>26522177</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>9</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
